--- a/public/template_excel/template_thay_doi_vi_tri.xlsx
+++ b/public/template_excel/template_thay_doi_vi_tri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\FESP\fe-service-portal\public\template_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FESP\fe-service-portal\public\template_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EB419-DFE7-47C6-A513-B34145357E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B3BD4-1E18-450D-8214-809619A456A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,13 +70,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,19 +377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -379,22 +397,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>22757</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13136</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
